--- a/artfynd/A 42296-2019.xlsx
+++ b/artfynd/A 42296-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY28"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3805,6 +3805,128 @@
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111982042</v>
+      </c>
+      <c r="B29" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Oxögat (Södra Kornsjön, Kynnefjäll), Boh</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>306291.7558343319</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6525531.449465405</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Tanum</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Bohuslän</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Naverstad</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Christer Johansson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Christer Johansson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 42296-2019.xlsx
+++ b/artfynd/A 42296-2019.xlsx
@@ -3857,10 +3857,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>306291.7558343319</v>
+        <v>306292</v>
       </c>
       <c r="R29" t="n">
-        <v>6525531.449465405</v>
+        <v>6525531</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>

--- a/artfynd/A 42296-2019.xlsx
+++ b/artfynd/A 42296-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY29"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3810,7 +3810,7 @@
         <v>111982042</v>
       </c>
       <c r="B29" t="n">
-        <v>56543</v>
+        <v>56575</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3926,6 +3926,128 @@
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111982668</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Oxögat, Boh</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>306298</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6525575</v>
+      </c>
+      <c r="S30" t="n">
+        <v>50</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Tanum</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Bohuslän</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Naverstad</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>13:36</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>13:36</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Mattias Drejby</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Mattias Drejby</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 42296-2019.xlsx
+++ b/artfynd/A 42296-2019.xlsx
@@ -3932,7 +3932,7 @@
         <v>111982668</v>
       </c>
       <c r="B30" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
